--- a/debate/all_states_COVID_cases.xlsx
+++ b/debate/all_states_COVID_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428D2502-70BE-42A3-A452-D27FE0ECF2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C87FC4A-F828-45B3-A49C-F7A3F154D6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E6A621CE-4E60-4BE2-8679-BF12EF115319}"/>
   </bookViews>
@@ -8771,7 +8771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4098E87C-088F-4243-BAF1-14D416AEB5B1}">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/debate/all_states_COVID_cases.xlsx
+++ b/debate/all_states_COVID_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C87FC4A-F828-45B3-A49C-F7A3F154D6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC6977F-B990-4BA0-AD12-6EB944570AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E6A621CE-4E60-4BE2-8679-BF12EF115319}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>Slope being positive for both graphs menas the highly vaxed did worse</t>
   </si>
   <si>
-    <t>from the baseline which was highly negative.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> If the vaccines worked, the trend would have gotten MORE negative!</t>
   </si>
   <si>
@@ -350,6 +347,32 @@
   </si>
   <si>
     <t>From CDC vax</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pre-vaccine baseline which was highly negative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8771,8 +8794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4098E87C-088F-4243-BAF1-14D416AEB5B1}">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AJ52" sqref="AJ52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8788,22 +8811,22 @@
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
@@ -8819,15 +8842,15 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W2" t="s">
         <v>60</v>
@@ -8847,7 +8870,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -8857,7 +8880,7 @@
         <v>55</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1">
         <v>2020</v>
@@ -9032,7 +9055,7 @@
         <v>12.895693084894885</v>
       </c>
       <c r="AE6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF6" cm="1">
         <f t="array" ref="AF6:AG10">LINEST($I$4:$I$53, $F$4:$F$53, TRUE, TRUE)</f>
@@ -9042,10 +9065,10 @@
         <v>0.65662544377463494</v>
       </c>
       <c r="AH6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AR6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AS6" cm="1">
         <f t="array" ref="AS6:AT10">LINEST($R$4:$R$53, $F$4:$F$53, TRUE, TRUE)</f>
@@ -9055,7 +9078,7 @@
         <v>10.385338953950377</v>
       </c>
       <c r="AU6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.35">
@@ -9108,7 +9131,7 @@
         <v>13.545581127940999</v>
       </c>
       <c r="AE7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF7">
         <v>1.238979974026197E-3</v>
@@ -9117,7 +9140,7 @@
         <v>0.19022664414978174</v>
       </c>
       <c r="AR7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AS7">
         <v>1.4788628771790772E-2</v>
@@ -9176,7 +9199,7 @@
         <v>14.065369075399733</v>
       </c>
       <c r="AE8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF8">
         <v>0.1534959276368793</v>
@@ -9185,7 +9208,7 @@
         <v>0.19931302596795067</v>
       </c>
       <c r="AR8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS8">
         <v>1.8611858381314485E-2</v>
@@ -9418,14 +9441,14 @@
         <v>13.896558902430881</v>
       </c>
       <c r="AE12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF12">
         <f>AF6-(1.96*AF7)</f>
         <v>1.2268637504347099E-3</v>
       </c>
       <c r="AR12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS12">
         <f>AS6-(1.96*AS7)</f>
@@ -9482,14 +9505,14 @@
         <v>13.707656833232612</v>
       </c>
       <c r="AE13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF13">
         <f>AF6+(1.96*AF7)</f>
         <v>6.0836652486174021E-3</v>
       </c>
       <c r="AR13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS13">
         <f>AS6+(1.96*AS7)</f>
@@ -9896,7 +9919,7 @@
         <v>13.738123989568304</v>
       </c>
       <c r="AE21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF21" cm="1">
         <f t="array" ref="AF21:AG25">LINEST($H$4:$H$53, $F$4:$F$53, TRUE, TRUE)</f>
@@ -9906,10 +9929,10 @@
         <v>-1.6795752894054017</v>
       </c>
       <c r="AH21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AR21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AS21" cm="1">
         <f t="array" ref="AS21:AT25">LINEST($Q$4:$Q$53, $F$4:$F$53, TRUE, TRUE)</f>
@@ -9919,7 +9942,7 @@
         <v>13.064905637071229</v>
       </c>
       <c r="AU21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -9972,7 +9995,7 @@
         <v>12.937114919075896</v>
       </c>
       <c r="AE22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF22">
         <v>6.078351219375046E-3</v>
@@ -9982,7 +10005,7 @@
       </c>
       <c r="AH22"/>
       <c r="AR22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AS22">
         <v>1.0619289120457719E-2</v>
@@ -10042,7 +10065,7 @@
         <v>8.8318901610145577</v>
       </c>
       <c r="AE23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF23">
         <v>0.24358816961527213</v>
@@ -10051,7 +10074,7 @@
         <v>0.97781610665807839</v>
       </c>
       <c r="AR23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS23">
         <v>5.0238502119520703E-2</v>
@@ -10284,14 +10307,14 @@
         <v>6.7782278186785696</v>
       </c>
       <c r="AE27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF27">
         <f>AF21-(1.96*AF22)</f>
         <v>1.1984090029077094E-2</v>
       </c>
       <c r="AR27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS27">
         <f>AS21-(1.96*AS22)</f>
@@ -10348,14 +10371,14 @@
         <v>14.163024730472912</v>
       </c>
       <c r="AE28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF28">
         <f>AF21+(1.96*AF22)</f>
         <v>3.5811226809027277E-2</v>
       </c>
       <c r="AR28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS28">
         <f>AS21+(1.96*AS22)</f>
@@ -10812,7 +10835,7 @@
         <v>15.090853345588496</v>
       </c>
       <c r="AE37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF37" cm="1">
         <f t="array" ref="AF37:AG41">LINEST($J$4:$J$53, $F$4:$F$53, TRUE, TRUE)</f>
@@ -10822,10 +10845,10 @@
         <v>-2.5393905579987228</v>
       </c>
       <c r="AH37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AR37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AS37" cm="1">
         <f t="array" ref="AS37:AT41">LINEST($P$4:$P$53, $F$4:$F$53, TRUE, TRUE)</f>
@@ -10835,7 +10858,7 @@
         <v>13.833268555322178</v>
       </c>
       <c r="AU37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.35">
@@ -10888,7 +10911,7 @@
         <v>10.985595681817834</v>
       </c>
       <c r="AE38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF38">
         <v>7.3187101926316146E-3</v>
@@ -10897,7 +10920,7 @@
         <v>1.1236773060382634</v>
       </c>
       <c r="AR38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AS38">
         <v>1.0978355385501411E-2</v>
@@ -10956,7 +10979,7 @@
         <v>13.559604955470423</v>
       </c>
       <c r="AE39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF39">
         <v>0.27271131296919399</v>
@@ -10965,7 +10988,7 @@
         <v>1.1773509703596283</v>
       </c>
       <c r="AR39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS39">
         <v>0.29680841565868893</v>
@@ -11198,7 +11221,7 @@
         <v>9.5847261044395662</v>
       </c>
       <c r="AE43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF43">
         <f>AF37-(1.96*AF38)</f>
@@ -11207,7 +11230,7 @@
       <c r="AG43"/>
       <c r="AH43"/>
       <c r="AR43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS43">
         <f>AS37-(1.96*AS38)</f>
@@ -11266,14 +11289,14 @@
         <v>10.287464749354426</v>
       </c>
       <c r="AE44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF44">
         <f>AF37+(1.96*AF38)</f>
         <v>4.5394080393687947E-2</v>
       </c>
       <c r="AR44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS44">
         <f>AS37+(1.96*AS38)</f>
@@ -11380,7 +11403,7 @@
         <v>11.377229195603697</v>
       </c>
       <c r="AE46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.35">
@@ -11433,7 +11456,7 @@
         <v>12.954548009844411</v>
       </c>
       <c r="AE47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.35">
@@ -11586,7 +11609,7 @@
         <v>13.288330812072152</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.35">
@@ -11639,7 +11662,7 @@
         <v>14.258963750600548</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ51" s="1" t="s">
         <v>59</v>
@@ -11695,10 +11718,10 @@
         <v>16.706081043018191</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.35">
@@ -11751,7 +11774,7 @@
         <v>11.514480177370777</v>
       </c>
       <c r="AJ53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11769,28 +11792,28 @@
       </c>
       <c r="I54"/>
       <c r="V54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="V55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="V56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="V57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ57" t="s">
         <v>85</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -11812,7 +11835,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
@@ -11822,37 +11845,37 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/debate/all_states_COVID_cases.xlsx
+++ b/debate/all_states_COVID_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC6977F-B990-4BA0-AD12-6EB944570AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DBED2C-1020-4E37-9170-79720CB1294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E6A621CE-4E60-4BE2-8679-BF12EF115319}"/>
+    <workbookView xWindow="3240" yWindow="3660" windowWidth="30410" windowHeight="17220" xr2:uid="{E6A621CE-4E60-4BE2-8679-BF12EF115319}"/>
   </bookViews>
   <sheets>
     <sheet name="covid cases" sheetId="12" r:id="rId1"/>
@@ -8794,7 +8794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4098E87C-088F-4243-BAF1-14D416AEB5B1}">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AJ52" sqref="AJ52"/>
     </sheetView>
   </sheetViews>

--- a/debate/all_states_COVID_cases.xlsx
+++ b/debate/all_states_COVID_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DBED2C-1020-4E37-9170-79720CB1294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D45C71-620F-49BB-BB53-3AA5B5CF1843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3660" windowWidth="30410" windowHeight="17220" xr2:uid="{E6A621CE-4E60-4BE2-8679-BF12EF115319}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E6A621CE-4E60-4BE2-8679-BF12EF115319}"/>
   </bookViews>
   <sheets>
     <sheet name="covid cases" sheetId="12" r:id="rId1"/>
@@ -379,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +532,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -879,12 +885,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1278,154 +1285,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.2352634576218835</c:v>
+                  <c:v>1.2350805439486185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2557621762161273</c:v>
+                  <c:v>1.2472443289436816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1643528194546968</c:v>
+                  <c:v>1.1568038860877354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1573992692280453</c:v>
+                  <c:v>1.1443643676167841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.881329276601228</c:v>
+                  <c:v>1.8913793016873721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2293077756705499</c:v>
+                  <c:v>1.2232611968448392</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3478211291913216</c:v>
+                  <c:v>1.3401613587618022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1463944994870068</c:v>
+                  <c:v>1.143403102369696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1514278740541859</c:v>
+                  <c:v>1.1344548741157521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0516143005341456</c:v>
+                  <c:v>1.0296933217479272</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0279378315574101</c:v>
+                  <c:v>1.0172646015405227</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99980135410286541</c:v>
+                  <c:v>0.99747781622701048</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0720382708571685</c:v>
+                  <c:v>1.0514008005693716</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2526111944233198</c:v>
+                  <c:v>1.2615151447069972</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93991066479736562</c:v>
+                  <c:v>0.93618955757899425</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3501840640944149</c:v>
+                  <c:v>1.3490035752952068</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3647981072395043</c:v>
+                  <c:v>1.363916130761667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2282331997873133</c:v>
+                  <c:v>1.2372788362913683</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.257002979458298</c:v>
+                  <c:v>1.2574978969688089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2106393670812894</c:v>
+                  <c:v>1.2107314710842938</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3049804552020172</c:v>
+                  <c:v>1.2926469420572588</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0818218668363673</c:v>
+                  <c:v>1.0836221516779305</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.87431085333904535</c:v>
+                  <c:v>0.87281308791858614</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.75675695212485272</c:v>
+                  <c:v>0.75556019477897607</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2698017235595835</c:v>
+                  <c:v>1.2740809587842843</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.078849282523177</c:v>
+                  <c:v>1.0602404942468959</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4594838059994035</c:v>
+                  <c:v>1.4393203977125915</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3079422692548222</c:v>
+                  <c:v>1.3038753674243271</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0868742658353665</c:v>
+                  <c:v>1.0841146048833079</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0276062312870622</c:v>
+                  <c:v>1.0230111246151203</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.284605054798015</c:v>
+                  <c:v>1.2853583388393779</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.4915194516845256</c:v>
+                  <c:v>1.4937510308398758</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2971649879395302</c:v>
+                  <c:v>1.283375600136508</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1900262936318595</c:v>
+                  <c:v>1.1996278337343664</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.98157503714710248</c:v>
+                  <c:v>0.98357549991404436</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3039865837962499</c:v>
+                  <c:v>1.2932294567985714</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.5924042478428924</c:v>
+                  <c:v>1.5946643372606442</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.98825243406901564</c:v>
+                  <c:v>0.9876466232064478</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2825840624895237</c:v>
+                  <c:v>1.2847839828551977</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.75818530037600351</c:v>
+                  <c:v>0.74499127321488168</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1773130944133023</c:v>
+                  <c:v>1.16031354001612</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.1450106912899058</c:v>
+                  <c:v>1.132650009321321</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.212949309230277</c:v>
+                  <c:v>1.1927583349662656</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2153333703436406</c:v>
+                  <c:v>1.1999476421002273</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4055322192600299</c:v>
+                  <c:v>1.3988401097138481</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4718330849478392</c:v>
+                  <c:v>1.4684347833441154</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7176846974131819</c:v>
+                  <c:v>1.7072949123433154</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3998310636326983</c:v>
+                  <c:v>1.4006314029861382</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1541640883139324</c:v>
+                  <c:v>1.1592374127885781</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.93982787909418919</c:v>
+                  <c:v>0.93566042905315772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,154 +1933,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2.2374524879060123</c:v>
+                  <c:v>2.2289505587245757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4821413740982099</c:v>
+                  <c:v>1.4473381396308505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4982677291261359</c:v>
+                  <c:v>1.5005607654098565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6556505391123149</c:v>
+                  <c:v>1.6886631320875389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.176590986620172</c:v>
+                  <c:v>1.1804964406130829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8560952101579851</c:v>
+                  <c:v>1.854740270440423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7472591380015938</c:v>
+                  <c:v>1.7237121168634482</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2531483973363695</c:v>
+                  <c:v>2.3969557913524686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1392021720969088</c:v>
+                  <c:v>2.1038644788483558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.191151766586187</c:v>
+                  <c:v>2.186341542208869</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5059055013896854</c:v>
+                  <c:v>1.4934186725908294</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0775660624395744</c:v>
+                  <c:v>1.0676046443127161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2639324042700995</c:v>
+                  <c:v>1.2148842553015828</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2639151993639122</c:v>
+                  <c:v>1.2555427069623282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4300723483288391</c:v>
+                  <c:v>1.4193495136355627</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3054674222220251</c:v>
+                  <c:v>1.2962246419447974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2275448424576458</c:v>
+                  <c:v>2.2116668832748556</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.628574781770199</c:v>
+                  <c:v>1.6360663609394925</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1040661975913775</c:v>
+                  <c:v>2.0766086262826433</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6255430814495666</c:v>
+                  <c:v>1.5967171236365776</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0642228375418439</c:v>
+                  <c:v>4.9826415259800774</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2355577500813486</c:v>
+                  <c:v>2.2168170580326323</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4613702799408623</c:v>
+                  <c:v>1.4485555503060417</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2200362909182307</c:v>
+                  <c:v>1.2167451806058183</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5195054932325043</c:v>
+                  <c:v>1.5281698678612419</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.424484690937182</c:v>
+                  <c:v>1.3940031176092829</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.1028090075807477</c:v>
+                  <c:v>2.112706268008127</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.88808424445702838</c:v>
+                  <c:v>0.87702371661947232</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0675541246902638</c:v>
+                  <c:v>1.0541990116952702</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.512287635141274</c:v>
+                  <c:v>3.4548440802413865</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9770458170136154</c:v>
+                  <c:v>1.894961485455912</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.450200541777787</c:v>
+                  <c:v>1.4436495859432505</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2728060150921492</c:v>
+                  <c:v>1.2704854855236776</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.5611459914624395</c:v>
+                  <c:v>2.4966991103564076</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.8785730603386732</c:v>
+                  <c:v>1.864730963027829</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.436748975719746</c:v>
+                  <c:v>1.4346385257889107</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.6982591366792792</c:v>
+                  <c:v>2.69530552135735</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.1803968421299222</c:v>
+                  <c:v>2.1499881405745778</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.8199289819526303</c:v>
+                  <c:v>1.7560011546505365</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.1717001564192033</c:v>
+                  <c:v>2.1831366421712772</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.80178769821230178</c:v>
+                  <c:v>0.79856667112371593</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4317164384693792</c:v>
+                  <c:v>1.4135749516086566</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.6036874520263391</c:v>
+                  <c:v>1.5946352635548315</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3018371565268925</c:v>
+                  <c:v>1.2674494512865795</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1997150768949103</c:v>
+                  <c:v>2.1865530935625941</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.6949541284403669</c:v>
+                  <c:v>7.4300642395106919</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.4410055440280121</c:v>
+                  <c:v>2.4267860183090941</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1533115439524861</c:v>
+                  <c:v>1.140938485368528</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.6080460577125604</c:v>
+                  <c:v>3.6117452500066616</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.6039316354792947</c:v>
+                  <c:v>1.6136998277918164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4560,154 +4567,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2.5006478921907394</c:v>
+                  <c:v>2.490942013614351</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6716792257478696</c:v>
+                  <c:v>1.6262612131746634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6213899919160693</c:v>
+                  <c:v>1.6182076450733827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7859496315889636</c:v>
+                  <c:v>1.8105545246783366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6950730281669129</c:v>
+                  <c:v>1.706631487052142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.06890374219503</c:v>
+                  <c:v>2.0617860367478476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0511259611863788</c:v>
+                  <c:v>2.0168822447566743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4180726632853742</c:v>
+                  <c:v>2.5688212397139454</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.301169590643275</c:v>
+                  <c:v>2.2453018956784345</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2476991494844385</c:v>
+                  <c:v>2.218801413640703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5269413685092865</c:v>
+                  <c:v>1.5063103117485579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0774590354009768</c:v>
+                  <c:v>1.0662582967577892</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3094581567120802</c:v>
+                  <c:v>1.246107266962396</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4235547634444654</c:v>
+                  <c:v>1.4197144233108623</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3871062999774639</c:v>
+                  <c:v>1.3740648534280004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5340443659503091</c:v>
+                  <c:v>1.5224181591570392</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.63384691361748</c:v>
+                  <c:v>2.6140975106224058</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8144221985383679</c:v>
+                  <c:v>1.830168322049081</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3744418384706156</c:v>
+                  <c:v>2.3439698033301775</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7967447643695196</c:v>
+                  <c:v>1.7649563978212865</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.8364673306608257</c:v>
+                  <c:v>5.7117189289528687</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3270165043474313</c:v>
+                  <c:v>2.3095045641671463</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3695310882201386</c:v>
+                  <c:v>1.3564368965951323</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0716536179576106</c:v>
+                  <c:v>1.0680347031303654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7244880937486968</c:v>
+                  <c:v>1.7375909991455731</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4806444888600052</c:v>
+                  <c:v>1.4359908360025313</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5859123506272632</c:v>
+                  <c:v>2.5767837469637347</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0248235832208041</c:v>
+                  <c:v>1.0102766686832678</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1139256151012558</c:v>
+                  <c:v>1.0985357783638308</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.5607681475424728</c:v>
+                  <c:v>3.4945940040695089</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2583844335582883</c:v>
+                  <c:v>2.1653330162830615</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.806601429341397</c:v>
+                  <c:v>1.8000513215587706</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.4619227071542591</c:v>
+                  <c:v>1.450497778986175</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.8044885315662902</c:v>
+                  <c:v>2.7459044277998923</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.8612667409120762</c:v>
+                  <c:v>1.8494173260965618</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.6551251821706492</c:v>
+                  <c:v>1.6449776635986035</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.4974892238541293</c:v>
+                  <c:v>3.4967065571438112</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.167589664300607</c:v>
+                  <c:v>2.1367083337734845</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0770704445339288</c:v>
+                  <c:v>2.0060416560103893</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.9091256459202555</c:v>
+                  <c:v>1.9047771944122593</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.87287142712857291</c:v>
+                  <c:v>0.86257719611708172</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.5355235337061628</c:v>
+                  <c:v>1.5073303168622938</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7744395195914751</c:v>
+                  <c:v>1.748324882695492</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4420016478036513</c:v>
+                  <c:v>1.3941612159195687</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.6457427453313804</c:v>
+                  <c:v>2.6225956314284233</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.510321100917432</c:v>
+                  <c:v>9.1703145056447166</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.3169417066528335</c:v>
+                  <c:v>3.2850127203570509</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3838764346116821</c:v>
+                  <c:v>1.3694863784255646</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.8861616232535279</c:v>
+                  <c:v>3.8993077346379095</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.5556756513319372</c:v>
+                  <c:v>1.5617874505132572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8795,7 +8802,7 @@
   <dimension ref="A1:AZ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ52" sqref="AJ52"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8918,16 +8925,16 @@
         <v>142</v>
       </c>
       <c r="H4">
-        <f>C4/B4</f>
-        <v>2.2374524879060123</v>
+        <f>Q4/P4</f>
+        <v>2.2289505587245757</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="H4:I35" si="0">D4/C4</f>
-        <v>1.2352634576218835</v>
+        <f t="shared" ref="I4:I53" si="0">R4/Q4</f>
+        <v>1.2350805439486185</v>
       </c>
       <c r="J4">
-        <f>(C4+D4)/(2*B4)</f>
-        <v>2.5006478921907394</v>
+        <f>AVERAGE(Q4, R4)/P4</f>
+        <v>2.490942013614351</v>
       </c>
       <c r="L4">
         <v>726473</v>
@@ -8968,16 +8975,16 @@
         <v>117</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1.4821413740982099</v>
+        <f t="shared" ref="H5:H53" si="2">Q5/P5</f>
+        <v>1.4473381396308505</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>1.2557621762161273</v>
+        <v>1.2472443289436816</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J53" si="2">(C5+D5)/(2*B5)</f>
-        <v>1.6716792257478696</v>
+        <f t="shared" ref="J5:J53" si="3">AVERAGE(Q5, R5)/P5</f>
+        <v>1.6262612131746634</v>
       </c>
       <c r="L5">
         <v>4921532</v>
@@ -9022,16 +9029,16 @@
         <v>130</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1.4982677291261359</v>
+        <f t="shared" si="2"/>
+        <v>1.5005607654098565</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>1.1643528194546968</v>
+        <v>1.1568038860877354</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
-        <v>1.6213899919160693</v>
+        <f t="shared" si="3"/>
+        <v>1.6182076450733827</v>
       </c>
       <c r="L6">
         <v>3030522</v>
@@ -9059,10 +9066,10 @@
       </c>
       <c r="AF6" cm="1">
         <f t="array" ref="AF6:AG10">LINEST($I$4:$I$53, $F$4:$F$53, TRUE, TRUE)</f>
-        <v>3.655264499526056E-3</v>
+        <v>3.7506388867966857E-3</v>
       </c>
       <c r="AG6">
-        <v>0.65662544377463494</v>
+        <v>0.63698659124240575</v>
       </c>
       <c r="AH6" t="s">
         <v>66</v>
@@ -9085,48 +9092,52 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>520207</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>861281</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>996846</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
         <v>143</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6886631320875389</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>1.6556505391123149</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1.1573992692280453</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>1.7859496315889636</v>
-      </c>
-      <c r="L7">
+        <v>1.1443643676167841</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8105545246783366</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
         <v>7421401</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>7276316</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <v>7359197</v>
       </c>
-      <c r="P7">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5">
         <f t="shared" si="1"/>
         <v>7.009552509020871</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="5">
         <f t="shared" si="1"/>
         <v>11.836772894415251</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="5">
         <f t="shared" si="1"/>
         <v>13.545581127940999</v>
       </c>
@@ -9134,10 +9145,10 @@
         <v>67</v>
       </c>
       <c r="AF7">
-        <v>1.238979974026197E-3</v>
+        <v>1.2443181415612049E-3</v>
       </c>
       <c r="AG7">
-        <v>0.19022664414978174</v>
+        <v>0.19104623907252616</v>
       </c>
       <c r="AR7" t="s">
         <v>67</v>
@@ -9153,48 +9164,52 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>2480002</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>2917948</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>5489621</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>174</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1804964406130829</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>1.176590986620172</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1.881329276601228</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>1.6950730281669129</v>
-      </c>
-      <c r="L8">
+        <v>1.8913793016873721</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="3"/>
+        <v>1.706631487052142</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <v>39368078</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>39237836</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="5">
         <v>39029342</v>
       </c>
-      <c r="P8">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5">
         <f t="shared" si="1"/>
         <v>6.2995252143119611</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="5">
         <f t="shared" si="1"/>
         <v>7.4365670930476382</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="5">
         <f t="shared" si="1"/>
         <v>14.065369075399733</v>
       </c>
@@ -9202,10 +9217,10 @@
         <v>68</v>
       </c>
       <c r="AF8">
-        <v>0.1534959276368793</v>
+        <v>0.15915563476604333</v>
       </c>
       <c r="AG8">
-        <v>0.19931302596795067</v>
+        <v>0.20017176973042555</v>
       </c>
       <c r="AR8" t="s">
         <v>68</v>
@@ -9221,53 +9236,57 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>334082</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>620088</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>762279</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <v>168</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>1.854740270440423</v>
+      </c>
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>1.8560952101579851</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1.2293077756705499</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>2.06890374219503</v>
-      </c>
-      <c r="L9">
+        <v>1.2232611968448392</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0617860367478476</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
         <v>5805390</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <v>5809631</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="5">
         <v>5838348</v>
       </c>
-      <c r="P9">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5">
         <f t="shared" si="1"/>
         <v>5.754686592976527</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="5">
         <f t="shared" si="1"/>
         <v>10.67344896775716</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="5">
         <f t="shared" si="1"/>
         <v>13.056415958760937</v>
       </c>
       <c r="AF9">
-        <v>8.703802813378168</v>
+        <v>9.0854750113529903</v>
       </c>
       <c r="AG9">
         <v>48</v>
@@ -9283,56 +9302,60 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>185708</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>324480</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>437341</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <v>192</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7237121168634482</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>1.7472591380015938</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1.3478211291913216</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>2.0511259611863788</v>
-      </c>
-      <c r="L10">
+        <v>1.3401613587618022</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0168822447566743</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <v>3557006</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <v>3605597</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <v>3626205</v>
       </c>
-      <c r="P10">
+      <c r="O10" s="5"/>
+      <c r="P10" s="5">
         <f t="shared" si="1"/>
         <v>5.2209076959667771</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="5">
         <f t="shared" si="1"/>
         <v>8.9993418565635608</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="5">
         <f t="shared" si="1"/>
         <v>12.060570210454181</v>
       </c>
       <c r="AF10">
-        <v>0.34576450554454374</v>
+        <v>0.36404351235700405</v>
       </c>
       <c r="AG10">
-        <v>1.9068327513840468</v>
+        <v>1.9232993950565045</v>
       </c>
       <c r="AS10">
         <v>5.152153302320869</v>
@@ -9345,48 +9368,52 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>28983</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>65303</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>74863</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
         <v>186</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3969557913524686</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
-        <v>2.2531483973363695</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>1.1463944994870068</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>2.4180726632853742</v>
-      </c>
-      <c r="L11">
+        <v>1.143403102369696</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5688212397139454</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
         <v>712816</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <v>670050</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="5">
         <v>671803</v>
       </c>
-      <c r="P11">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5">
         <f t="shared" si="1"/>
         <v>4.0659861731498737</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="5">
         <f t="shared" si="1"/>
         <v>9.7459891052906507</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="5">
         <f t="shared" si="1"/>
         <v>11.143594178650588</v>
       </c>
@@ -9395,48 +9422,52 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>57456</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>122910</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>141522</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>160</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1038644788483558</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>2.1392021720969088</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>1.1514278740541859</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>2.301169590643275</v>
-      </c>
-      <c r="L12">
+        <v>1.1344548741157521</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2453018956784345</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
         <v>986809</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="5">
         <v>1003384</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="5">
         <v>1018396</v>
       </c>
-      <c r="P12">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5">
         <f t="shared" si="1"/>
         <v>5.8224033222234493</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="5">
         <f t="shared" si="1"/>
         <v>12.249547531154573</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="5">
         <f t="shared" si="1"/>
         <v>13.896558902430881</v>
       </c>
@@ -9445,7 +9476,7 @@
       </c>
       <c r="AF12">
         <f>AF6-(1.96*AF7)</f>
-        <v>1.2268637504347099E-3</v>
+        <v>1.311775329336724E-3</v>
       </c>
       <c r="AR12" t="s">
         <v>69</v>
@@ -9459,48 +9490,52 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>1323315</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>2899584</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>3049244</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
         <v>157</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <f t="shared" si="2"/>
+        <v>2.186341542208869</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>2.191151766586187</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>1.0516143005341456</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>2.2476991494844385</v>
-      </c>
-      <c r="L13">
+        <v>1.0296933217479272</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="3"/>
+        <v>2.218801413640703</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
         <v>21733312</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <v>21781128</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="5">
         <v>22244823</v>
       </c>
-      <c r="P13">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5">
         <f t="shared" si="1"/>
         <v>6.0888786761999274</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="5">
         <f t="shared" si="1"/>
         <v>13.312368395245647</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="5">
         <f t="shared" si="1"/>
         <v>13.707656833232612</v>
       </c>
@@ -9509,7 +9544,7 @@
       </c>
       <c r="AF13">
         <f>AF6+(1.96*AF7)</f>
-        <v>6.0836652486174021E-3</v>
+        <v>6.1895024442566475E-3</v>
       </c>
       <c r="AR13" t="s">
         <v>70</v>
@@ -9523,48 +9558,52 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>566675</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>853359</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>877200</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <v>124</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4934186725908294</v>
+      </c>
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>1.5059055013896854</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>1.0279378315574101</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>1.5269413685092865</v>
-      </c>
-      <c r="L14">
+        <v>1.0172646015405227</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5063103117485579</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
         <v>10710017</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="5">
         <v>10799566</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="5">
         <v>10912876</v>
       </c>
-      <c r="P14">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5">
         <f t="shared" si="1"/>
         <v>5.2910747013753578</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="5">
         <f t="shared" si="1"/>
         <v>7.901789757106906</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="5">
         <f t="shared" si="1"/>
         <v>8.0382110087203404</v>
       </c>
@@ -9573,48 +9612,52 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>280303</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>302045</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>301985</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
         <v>149</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0676046443127161</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>1.0775660624395744</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0.99980135410286541</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>1.0774590354009768</v>
-      </c>
-      <c r="L15">
+        <v>0.99747781622701048</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0662582967577892</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
         <v>3163561</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="5">
         <v>3193079</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="5">
         <v>3200517</v>
       </c>
-      <c r="P15">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
         <f t="shared" si="1"/>
         <v>8.8603633690009449</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="5">
         <f t="shared" si="1"/>
         <v>9.4593650830436715</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="5">
         <f t="shared" si="1"/>
         <v>9.4355068259284351</v>
       </c>
@@ -9623,48 +9666,52 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>141074</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>178308</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>191153</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <v>110</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2148842553015828</v>
+      </c>
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>1.2639324042700995</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>1.0720382708571685</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>1.3094581567120802</v>
-      </c>
-      <c r="L16">
+        <v>1.0514008005693716</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="3"/>
+        <v>1.246107266962396</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
         <v>1826061</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="5">
         <v>1899784</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="5">
         <v>1937074</v>
       </c>
-      <c r="P16">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
         <f t="shared" si="1"/>
         <v>7.7255907661354133</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="5">
         <f t="shared" si="1"/>
         <v>9.3856985846812062</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="5">
         <f t="shared" si="1"/>
         <v>9.8681310058366378</v>
       </c>
@@ -9673,48 +9720,52 @@
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>963389</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>1217642</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>1525232</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
         <v>163</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2555427069623282</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>1.2639151993639122</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>1.2526111944233198</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>1.4235547634444654</v>
-      </c>
-      <c r="L17">
+        <v>1.2615151447069972</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4197144233108623</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
         <v>12587530</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="5">
         <v>12671469</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="5">
         <v>12582032</v>
       </c>
-      <c r="P17">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5">
         <f t="shared" si="1"/>
         <v>7.6535189985644525</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="5">
         <f t="shared" si="1"/>
         <v>9.6093199612452196</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="5">
         <f t="shared" si="1"/>
         <v>12.122302661446101</v>
       </c>
@@ -9723,48 +9774,52 @@
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>514732</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>736104</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>691872</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <v>127</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4193495136355627</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>1.4300723483288391</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0.93991066479736562</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>1.3871062999774639</v>
-      </c>
-      <c r="L18">
+        <v>0.93618955757899425</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3740648534280004</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
         <v>6754953</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="5">
         <v>6805985</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="5">
         <v>6833037</v>
       </c>
-      <c r="P18">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5">
         <f t="shared" si="1"/>
         <v>7.6200678228257104</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="5">
         <f t="shared" si="1"/>
         <v>10.815539558197674</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="5">
         <f t="shared" si="1"/>
         <v>10.125395193967192</v>
       </c>
@@ -9773,48 +9828,52 @@
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>225353</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>294191</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>397212</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
         <v>146</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2962246419447974</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>1.3054674222220251</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>1.3501840640944149</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>1.5340443659503091</v>
-      </c>
-      <c r="L19">
+        <v>1.3490035752952068</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5224181591570392</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
         <v>2913805</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="5">
         <v>2934582</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="5">
         <v>2937150</v>
       </c>
-      <c r="P19">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5">
         <f t="shared" si="1"/>
         <v>7.7339767074323778</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="5">
         <f t="shared" si="1"/>
         <v>10.024971188400936</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="5">
         <f t="shared" si="1"/>
         <v>13.523721975384301</v>
       </c>
@@ -9823,48 +9882,52 @@
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>265262</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>590883</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>806436</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
         <v>136</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2116668832748556</v>
+      </c>
+      <c r="I20" s="5">
         <f t="shared" si="0"/>
-        <v>2.2275448424576458</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>1.3647981072395043</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>2.63384691361748</v>
-      </c>
-      <c r="L20">
+        <v>1.363916130761667</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6140975106224058</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
         <v>4477251</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="5">
         <v>4509394</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="5">
         <v>4512310</v>
       </c>
-      <c r="P20">
+      <c r="O20" s="5"/>
+      <c r="P20" s="5">
         <f t="shared" si="1"/>
         <v>5.9246622536909372</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="5">
         <f t="shared" si="1"/>
         <v>13.103379301076817</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="5">
         <f t="shared" si="1"/>
         <v>17.871910396227207</v>
       </c>
@@ -9873,48 +9936,52 @@
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>315264</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>513431</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>630613</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
         <v>125</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6360663609394925</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" si="0"/>
-        <v>1.628574781770199</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>1.2282331997873133</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>1.8144221985383679</v>
-      </c>
-      <c r="L21">
+        <v>1.2372788362913683</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="3"/>
+        <v>1.830168322049081</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
         <v>4645318</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="5">
         <v>4624047</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="5">
         <v>4590241</v>
       </c>
-      <c r="P21">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5">
         <f t="shared" si="1"/>
         <v>6.7867043763204151</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="5">
         <f t="shared" si="1"/>
         <v>11.10349873173867</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="5">
         <f t="shared" si="1"/>
         <v>13.738123989568304</v>
       </c>
@@ -9923,10 +9990,10 @@
       </c>
       <c r="AF21" cm="1">
         <f t="array" ref="AF21:AG25">LINEST($H$4:$H$53, $F$4:$F$53, TRUE, TRUE)</f>
-        <v>2.3897658419052184E-2</v>
+        <v>2.3237046832463311E-2</v>
       </c>
       <c r="AG21">
-        <v>-1.6795752894054017</v>
+        <v>-1.5975327528613672</v>
       </c>
       <c r="AH21" t="s">
         <v>66</v>
@@ -9949,48 +10016,52 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>341523</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>718587</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>903266</v>
       </c>
-      <c r="F22" s="2">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
         <v>192</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0766086262826433</v>
+      </c>
+      <c r="I22" s="5">
         <f t="shared" si="0"/>
-        <v>2.1040661975913775</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>1.257002979458298</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>2.3744418384706156</v>
-      </c>
-      <c r="L22">
+        <v>1.2574978969688089</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3439698033301775</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
         <v>6893574</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="5">
         <v>6984723</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="5">
         <v>6981974</v>
       </c>
-      <c r="P22">
+      <c r="O22" s="5"/>
+      <c r="P22" s="5">
         <f t="shared" si="1"/>
         <v>4.9542225846853896</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="5">
         <f t="shared" si="1"/>
         <v>10.287981355881973</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="5">
         <f t="shared" si="1"/>
         <v>12.937114919075896</v>
       </c>
@@ -9998,10 +10069,10 @@
         <v>67</v>
       </c>
       <c r="AF22">
-        <v>6.078351219375046E-3</v>
+        <v>5.9099203584923902E-3</v>
       </c>
       <c r="AG22">
-        <v>0.93323893740432695</v>
+        <v>0.9073789250484785</v>
       </c>
       <c r="AH22"/>
       <c r="AR22" t="s">
@@ -10019,48 +10090,52 @@
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>276662</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>449726</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>544456</v>
       </c>
-      <c r="F23">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
         <v>175</v>
       </c>
-      <c r="H23">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5967171236365776</v>
+      </c>
+      <c r="I23" s="5">
         <f t="shared" si="0"/>
-        <v>1.6255430814495666</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>1.2106393670812894</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>1.7967447643695196</v>
-      </c>
-      <c r="L23" s="2">
+        <v>1.2107314710842938</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7649563978212865</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
         <v>6055802</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="5">
         <v>6165129</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="5">
         <v>6164660</v>
       </c>
-      <c r="P23">
+      <c r="O23" s="5"/>
+      <c r="P23" s="5">
         <f t="shared" si="1"/>
         <v>4.5685443480483672</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="5">
         <f t="shared" si="1"/>
         <v>7.2946729906219323</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="5">
         <f t="shared" si="1"/>
         <v>8.8318901610145577</v>
       </c>
@@ -10068,10 +10143,10 @@
         <v>68</v>
       </c>
       <c r="AF23">
-        <v>0.24358816961527213</v>
+        <v>0.24361341088460772</v>
       </c>
       <c r="AG23">
-        <v>0.97781610665807839</v>
+        <v>0.95072086278596135</v>
       </c>
       <c r="AR23" t="s">
         <v>68</v>
@@ -10087,53 +10162,57 @@
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>24197</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>122539</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>159911</v>
       </c>
-      <c r="F24">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
         <v>193</v>
       </c>
-      <c r="H24">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9826415259800774</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="0"/>
-        <v>5.0642228375418439</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>1.3049804552020172</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>5.8364673306608257</v>
-      </c>
-      <c r="L24">
+        <v>1.2926469420572588</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7117189289528687</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
         <v>1350141</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="5">
         <v>1372247</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="5">
         <v>1385340</v>
       </c>
-      <c r="P24">
+      <c r="O24" s="5"/>
+      <c r="P24" s="5">
         <f t="shared" si="1"/>
         <v>1.7921831867930831</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="5">
         <f t="shared" si="1"/>
         <v>8.9298063686785252</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="5">
         <f t="shared" si="1"/>
         <v>11.54308689563573</v>
       </c>
       <c r="AF24">
-        <v>15.457495073267339</v>
+        <v>15.459612704314157</v>
       </c>
       <c r="AG24">
         <v>48</v>
@@ -10149,56 +10228,60 @@
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>528588</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>1181689</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>1278377</v>
       </c>
-      <c r="F25">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
         <v>144</v>
       </c>
-      <c r="H25">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2168170580326323</v>
+      </c>
+      <c r="I25" s="5">
         <f t="shared" si="0"/>
-        <v>2.2355577500813486</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>1.0818218668363673</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>2.3270165043474313</v>
-      </c>
-      <c r="L25">
+        <v>1.0836221516779305</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3095045641671463</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
         <v>9966555</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="5">
         <v>10050811</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="5">
         <v>10034113</v>
       </c>
-      <c r="P25">
+      <c r="O25" s="5"/>
+      <c r="P25" s="5">
         <f t="shared" si="1"/>
         <v>5.3036179502345595</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="5">
         <f t="shared" si="1"/>
         <v>11.757150741368035</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="5">
         <f t="shared" si="1"/>
         <v>12.740308983963006</v>
       </c>
       <c r="AF25">
-        <v>14.779287250866716</v>
+        <v>13.973482592144904</v>
       </c>
       <c r="AG25">
-        <v>45.893968245118202</v>
+        <v>43.385767628951172</v>
       </c>
       <c r="AS25">
         <v>7.4096388640396071</v>
@@ -10211,48 +10294,52 @@
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>415302</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>606910</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>530628</v>
       </c>
-      <c r="F26">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
         <v>166</v>
       </c>
-      <c r="H26">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4485555503060417</v>
+      </c>
+      <c r="I26" s="5">
         <f t="shared" si="0"/>
-        <v>1.4613702799408623</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>0.87431085333904535</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
-        <v>1.3695310882201386</v>
-      </c>
-      <c r="L26">
+        <v>0.87281308791858614</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3564368965951323</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5">
         <v>5657342</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="5">
         <v>5707390</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="5">
         <v>5717184</v>
       </c>
-      <c r="P26">
+      <c r="O26" s="5"/>
+      <c r="P26" s="5">
         <f t="shared" si="1"/>
         <v>7.3409385538296954</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="5">
         <f t="shared" si="1"/>
         <v>10.633757286605611</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="5">
         <f t="shared" si="1"/>
         <v>9.2812825334990094</v>
       </c>
@@ -10261,48 +10348,52 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>453557</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>553356</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>418756</v>
       </c>
-      <c r="F27">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
         <v>133</v>
       </c>
-      <c r="H27">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2167451806058183</v>
+      </c>
+      <c r="I27" s="5">
         <f t="shared" si="0"/>
-        <v>1.2200362909182307</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>0.75675695212485272</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="2"/>
-        <v>1.0716536179576106</v>
-      </c>
-      <c r="L27">
+        <v>0.75556019477897607</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0680347031303654</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5">
         <v>6151548</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="5">
         <v>6168187</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="5">
         <v>6177957</v>
       </c>
-      <c r="P27">
+      <c r="O27" s="5"/>
+      <c r="P27" s="5">
         <f t="shared" si="1"/>
         <v>7.3730547172841696</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="5">
         <f t="shared" si="1"/>
         <v>8.971128793598508</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="5">
         <f t="shared" si="1"/>
         <v>6.7782278186785696</v>
       </c>
@@ -10311,7 +10402,7 @@
       </c>
       <c r="AF27">
         <f>AF21-(1.96*AF22)</f>
-        <v>1.1984090029077094E-2</v>
+        <v>1.1653602929818227E-2</v>
       </c>
       <c r="AR27" t="s">
         <v>69</v>
@@ -10325,48 +10416,52 @@
       <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>215811</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>327926</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>416401</v>
       </c>
-      <c r="F28">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
         <v>120</v>
       </c>
-      <c r="H28">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5281698678612419</v>
+      </c>
+      <c r="I28" s="5">
         <f t="shared" si="0"/>
-        <v>1.5195054932325043</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>1.2698017235595835</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="2"/>
-        <v>1.7244880937486968</v>
-      </c>
-      <c r="L28">
+        <v>1.2740809587842843</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7375909991455731</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
         <v>2966786</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="5">
         <v>2949965</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="5">
         <v>2940057</v>
       </c>
-      <c r="P28">
+      <c r="O28" s="5"/>
+      <c r="P28" s="5">
         <f t="shared" si="1"/>
         <v>7.274235485808549</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="5">
         <f t="shared" si="1"/>
         <v>11.116267481139607</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="5">
         <f t="shared" si="1"/>
         <v>14.163024730472912</v>
       </c>
@@ -10375,7 +10470,7 @@
       </c>
       <c r="AF28">
         <f>AF21+(1.96*AF22)</f>
-        <v>3.5811226809027277E-2</v>
+        <v>3.4820490735108393E-2</v>
       </c>
       <c r="AR28" t="s">
         <v>70</v>
@@ -10389,48 +10484,52 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>81553</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>116171</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>125331</v>
       </c>
-      <c r="F29" s="2">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
         <v>134</v>
       </c>
-      <c r="H29">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3940031176092829</v>
+      </c>
+      <c r="I29" s="5">
         <f t="shared" si="0"/>
-        <v>1.424484690937182</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>1.078849282523177</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="2"/>
-        <v>1.4806444888600052</v>
-      </c>
-      <c r="L29">
+        <v>1.0602404942468959</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4359908360025313</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
         <v>1079382</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="5">
         <v>1102984</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="5">
         <v>1122343</v>
       </c>
-      <c r="P29">
+      <c r="O29" s="5"/>
+      <c r="P29" s="5">
         <f t="shared" si="1"/>
         <v>7.5555271442362386</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="5">
         <f t="shared" si="1"/>
         <v>10.532428394246878</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="5">
         <f t="shared" si="1"/>
         <v>11.166907086336352</v>
       </c>
@@ -10439,48 +10538,52 @@
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>537414</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>1130079</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>1649332</v>
       </c>
-      <c r="F30">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
         <v>145</v>
       </c>
-      <c r="H30">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5">
+        <f t="shared" si="2"/>
+        <v>2.112706268008127</v>
+      </c>
+      <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>2.1028090075807477</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>1.4594838059994035</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>2.5859123506272632</v>
-      </c>
-      <c r="L30" s="2">
+        <v>1.4393203977125915</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5767837469637347</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5">
         <v>10600823</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="5">
         <v>10551162</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="5">
         <v>10698973</v>
       </c>
-      <c r="P30">
+      <c r="O30" s="5"/>
+      <c r="P30" s="5">
         <f t="shared" si="1"/>
         <v>5.0695497887286676</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="5">
         <f t="shared" si="1"/>
         <v>10.710469614626332</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="5">
         <f t="shared" si="1"/>
         <v>15.415797385412599</v>
       </c>
@@ -10489,48 +10592,52 @@
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>91828</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>81551</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>106664</v>
       </c>
-      <c r="F31">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
         <v>133</v>
       </c>
-      <c r="H31">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5">
+        <f t="shared" si="2"/>
+        <v>0.87702371661947232</v>
+      </c>
+      <c r="I31" s="5">
         <f t="shared" si="0"/>
-        <v>0.88808424445702838</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>1.3079422692548222</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="2"/>
-        <v>1.0248235832208041</v>
-      </c>
-      <c r="L31">
+        <v>1.3038753674243271</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0102766686832678</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5">
         <v>763672</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="5">
         <v>773303</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="5">
         <v>775715</v>
       </c>
-      <c r="P31">
+      <c r="O31" s="5"/>
+      <c r="P31" s="5">
         <f t="shared" si="1"/>
         <v>12.024534093170889</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="5">
         <f t="shared" si="1"/>
         <v>10.54580158101029</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="5">
         <f t="shared" si="1"/>
         <v>13.75041091122384</v>
       </c>
@@ -10539,48 +10646,52 @@
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>165867</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>177072</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>192455</v>
       </c>
-      <c r="F32">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
         <v>140</v>
       </c>
-      <c r="H32">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0541990116952702</v>
+      </c>
+      <c r="I32" s="5">
         <f t="shared" si="0"/>
-        <v>1.0675541246902638</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>1.0868742658353665</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
-        <v>1.1139256151012558</v>
-      </c>
-      <c r="L32">
+        <v>1.0841146048833079</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0985357783638308</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5">
         <v>1932274</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="5">
         <v>1956753</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="5">
         <v>1961734</v>
       </c>
-      <c r="P32">
+      <c r="O32" s="5"/>
+      <c r="P32" s="5">
         <f t="shared" si="1"/>
         <v>8.584031043216438</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="5">
         <f t="shared" si="1"/>
         <v>9.0492770421202877</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="5">
         <f t="shared" si="1"/>
         <v>9.8104534049978245</v>
       </c>
@@ -10589,48 +10700,52 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>44028</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>154639</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>158908</v>
       </c>
-      <c r="F33">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
         <v>173</v>
       </c>
-      <c r="H33">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5">
+        <f t="shared" si="2"/>
+        <v>3.4548440802413865</v>
+      </c>
+      <c r="I33" s="5">
         <f t="shared" si="0"/>
-        <v>3.512287635141274</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>1.0276062312870622</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
-        <v>3.5607681475424728</v>
-      </c>
-      <c r="L33">
+        <v>1.0230111246151203</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="3"/>
+        <v>3.4945940040695089</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5">
         <v>1366275</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="5">
         <v>1388992</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="5">
         <v>1395231</v>
       </c>
-      <c r="P33">
+      <c r="O33" s="5"/>
+      <c r="P33" s="5">
         <f t="shared" si="1"/>
         <v>3.2224844925069989</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="5">
         <f t="shared" si="1"/>
         <v>11.133181472607474</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="5">
         <f t="shared" si="1"/>
         <v>11.389368498836392</v>
       </c>
@@ -10639,48 +10754,52 @@
       <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>525438</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>1038815</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>1334467</v>
       </c>
-      <c r="F34">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
         <v>168</v>
       </c>
-      <c r="H34">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
+        <f t="shared" si="2"/>
+        <v>1.894961485455912</v>
+      </c>
+      <c r="I34" s="5">
         <f t="shared" si="0"/>
-        <v>1.9770458170136154</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>1.284605054798015</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="2"/>
-        <v>2.2583844335582883</v>
-      </c>
-      <c r="L34">
+        <v>1.2853583388393779</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1653330162830615</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5">
         <v>8882371</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="5">
         <v>9267130</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="5">
         <v>9261699</v>
       </c>
-      <c r="P34">
+      <c r="O34" s="5"/>
+      <c r="P34" s="5">
         <f t="shared" si="1"/>
         <v>5.9155151254096454</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="5">
         <f t="shared" si="1"/>
         <v>11.209673329283177</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="5">
         <f t="shared" si="1"/>
         <v>14.408447089459504</v>
       </c>
@@ -10689,48 +10808,52 @@
       <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>142863</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>207180</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>309013</v>
       </c>
-      <c r="F35">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
         <v>172</v>
       </c>
-      <c r="H35">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4436495859432505</v>
+      </c>
+      <c r="I35" s="5">
         <f t="shared" si="0"/>
-        <v>1.450200541777787</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>1.4915194516845256</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
-        <v>1.806601429341397</v>
-      </c>
-      <c r="L35">
+        <v>1.4937510308398758</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8000513215587706</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5">
         <v>2106319</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="5">
         <v>2115877</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="5">
         <v>2112716</v>
       </c>
-      <c r="P35">
+      <c r="O35" s="5"/>
+      <c r="P35" s="5">
         <f t="shared" si="1"/>
         <v>6.7825908611183774</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="5">
         <f t="shared" si="1"/>
         <v>9.7916844882760206</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="5">
         <f t="shared" si="1"/>
         <v>14.626338798021127</v>
       </c>
@@ -10739,48 +10862,52 @@
       <c r="A36" t="s">
         <v>27</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>220512</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>280669</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>364074</v>
       </c>
-      <c r="F36">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
         <v>141</v>
       </c>
-      <c r="H36">
-        <f t="shared" ref="H36:I53" si="3">C36/B36</f>
-        <v>1.2728060150921492</v>
-      </c>
-      <c r="I36">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2704854855236776</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="0"/>
+        <v>1.283375600136508</v>
+      </c>
+      <c r="J36" s="5">
         <f t="shared" si="3"/>
-        <v>1.2971649879395302</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
-        <v>1.4619227071542591</v>
-      </c>
-      <c r="L36">
+        <v>1.450497778986175</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5">
         <v>3138259</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="5">
         <v>3143991</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="5">
         <v>3177772</v>
       </c>
-      <c r="P36">
+      <c r="O36" s="5"/>
+      <c r="P36" s="5">
         <f t="shared" ref="P36:R53" si="4">B36/L36*100</f>
         <v>7.0265711020027348</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="5">
         <f t="shared" si="4"/>
         <v>8.9271565980945873</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="5">
         <f t="shared" si="4"/>
         <v>11.456894956592228</v>
       </c>
@@ -10789,48 +10916,52 @@
       <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>974283</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>2495281</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>2969450</v>
       </c>
-      <c r="F37">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
         <v>178</v>
       </c>
-      <c r="H37">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4966991103564076</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1996278337343664</v>
+      </c>
+      <c r="J37" s="5">
         <f t="shared" si="3"/>
-        <v>2.5611459914624395</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="3"/>
-        <v>1.1900262936318595</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="2"/>
-        <v>2.8044885315662902</v>
-      </c>
-      <c r="L37">
+        <v>2.7459044277998923</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5">
         <v>19336776</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="5">
         <v>19835913</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="5">
         <v>19677151</v>
       </c>
-      <c r="P37">
+      <c r="O37" s="5"/>
+      <c r="P37" s="5">
         <f t="shared" si="4"/>
         <v>5.0384976275259126</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="5">
         <f t="shared" si="4"/>
         <v>12.579612544176817</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="5">
         <f t="shared" si="4"/>
         <v>15.090853345588496</v>
       </c>
@@ -10839,10 +10970,10 @@
       </c>
       <c r="AF37" cm="1">
         <f t="array" ref="AF37:AG41">LINEST($J$4:$J$53, $F$4:$F$53, TRUE, TRUE)</f>
-        <v>3.1049408416129982E-2</v>
+        <v>3.0231041372468518E-2</v>
       </c>
       <c r="AG37">
-        <v>-2.5393905579987228</v>
+        <v>-2.4408206121224914</v>
       </c>
       <c r="AH37" t="s">
         <v>66</v>
@@ -10865,48 +10996,52 @@
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>700380</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>1315715</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>1291473</v>
       </c>
-      <c r="F38">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
         <v>139</v>
       </c>
-      <c r="H38">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5">
+        <f t="shared" si="2"/>
+        <v>1.864730963027829</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.98357549991404436</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" si="3"/>
-        <v>1.8785730603386732</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="3"/>
-        <v>0.98157503714710248</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
-        <v>1.8612667409120762</v>
-      </c>
-      <c r="L38">
+        <v>1.8494173260965618</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5">
         <v>11693217</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="5">
         <v>11780017</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="5">
         <v>11756058</v>
       </c>
-      <c r="P38">
+      <c r="O38" s="5"/>
+      <c r="P38" s="5">
         <f t="shared" si="4"/>
         <v>5.9896262936025222</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="5">
         <f t="shared" si="4"/>
         <v>11.169041606646237</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="5">
         <f t="shared" si="4"/>
         <v>10.985595681817834</v>
       </c>
@@ -10914,10 +11049,10 @@
         <v>67</v>
       </c>
       <c r="AF38">
-        <v>7.3187101926316146E-3</v>
+        <v>7.0873737705982572E-3</v>
       </c>
       <c r="AG38">
-        <v>1.1236773060382634</v>
+        <v>1.0881590957721041</v>
       </c>
       <c r="AR38" t="s">
         <v>67</v>
@@ -10933,48 +11068,52 @@
       <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>290936</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>418002</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>545069</v>
       </c>
-      <c r="F39">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
         <v>136</v>
       </c>
-      <c r="H39">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4346385257889107</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2932294567985714</v>
+      </c>
+      <c r="J39" s="5">
         <f t="shared" si="3"/>
-        <v>1.436748975719746</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="3"/>
-        <v>1.3039865837962499</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="2"/>
-        <v>1.6551251821706492</v>
-      </c>
-      <c r="L39">
+        <v>1.6449776635986035</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5">
         <v>3980783</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="5">
         <v>3986639</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="5">
         <v>4019800</v>
       </c>
-      <c r="P39">
+      <c r="O39" s="5"/>
+      <c r="P39" s="5">
         <f t="shared" si="4"/>
         <v>7.3085119183838962</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="5">
         <f t="shared" si="4"/>
         <v>10.485072764300957</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="5">
         <f t="shared" si="4"/>
         <v>13.559604955470423</v>
       </c>
@@ -10982,10 +11121,10 @@
         <v>68</v>
       </c>
       <c r="AF39">
-        <v>0.27271131296919399</v>
+        <v>0.27486212210871019</v>
       </c>
       <c r="AG39">
-        <v>1.1773509703596283</v>
+        <v>1.1401361942868293</v>
       </c>
       <c r="AR39" t="s">
         <v>68</v>
@@ -11001,53 +11140,57 @@
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>113909</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>307356</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>489435</v>
       </c>
-      <c r="F40">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
         <v>166</v>
       </c>
-      <c r="H40">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5">
+        <f t="shared" si="2"/>
+        <v>2.69530552135735</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5946643372606442</v>
+      </c>
+      <c r="J40" s="5">
         <f t="shared" si="3"/>
-        <v>2.6982591366792792</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="3"/>
-        <v>1.5924042478428924</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="2"/>
-        <v>3.4974892238541293</v>
-      </c>
-      <c r="L40">
+        <v>3.4967065571438112</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5">
         <v>4241507</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="5">
         <v>4246155</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="5">
         <v>4240137</v>
       </c>
-      <c r="P40">
+      <c r="O40" s="5"/>
+      <c r="P40" s="5">
         <f t="shared" si="4"/>
         <v>2.6855784983969144</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="5">
         <f t="shared" si="4"/>
         <v>7.2384545547677845</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="5">
         <f t="shared" si="4"/>
         <v>11.54290533537006</v>
       </c>
       <c r="AF40">
-        <v>17.998551683737173</v>
+        <v>18.194307956418736</v>
       </c>
       <c r="AG40">
         <v>48</v>
@@ -11063,56 +11206,60 @@
       <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>640305</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>1396119</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>1379718</v>
       </c>
-      <c r="F41">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
         <v>162</v>
       </c>
-      <c r="H41">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1499881405745778</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9876466232064478</v>
+      </c>
+      <c r="J41" s="5">
         <f t="shared" si="3"/>
-        <v>2.1803968421299222</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="3"/>
-        <v>0.98825243406901564</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="2"/>
-        <v>2.167589664300607</v>
-      </c>
-      <c r="L41">
+        <v>2.1367083337734845</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5">
         <v>12783254</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="5">
         <v>12964056</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="5">
         <v>12972008</v>
       </c>
-      <c r="P41">
+      <c r="O41" s="5"/>
+      <c r="P41" s="5">
         <f t="shared" si="4"/>
         <v>5.008935909432763</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="5">
         <f t="shared" si="4"/>
         <v>10.769152802178578</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="5">
         <f t="shared" si="4"/>
         <v>10.636117399865928</v>
       </c>
       <c r="AF41">
-        <v>24.948787942047133</v>
+        <v>23.650972708261861</v>
       </c>
       <c r="AG41">
-        <v>66.535454755524412</v>
+        <v>62.395705993097025</v>
       </c>
       <c r="AS41">
         <v>63.191861077090664</v>
@@ -11125,48 +11272,52 @@
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>81951</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>149145</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <v>191291</v>
       </c>
-      <c r="F42">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
         <v>193</v>
       </c>
-      <c r="H42">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7560011546505365</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2847839828551977</v>
+      </c>
+      <c r="J42" s="5">
         <f t="shared" si="3"/>
-        <v>1.8199289819526303</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="3"/>
-        <v>1.2825840624895237</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="2"/>
-        <v>2.0770704445339288</v>
-      </c>
-      <c r="L42">
+        <v>2.0060416560103893</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5">
         <v>1057125</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="5">
         <v>1095610</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="5">
         <v>1093734</v>
       </c>
-      <c r="P42">
+      <c r="O42" s="5"/>
+      <c r="P42" s="5">
         <f t="shared" si="4"/>
         <v>7.7522525718339841</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="5">
         <f t="shared" si="4"/>
         <v>13.612964467283067</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="5">
         <f t="shared" si="4"/>
         <v>17.489718706742224</v>
       </c>
@@ -11175,48 +11326,52 @@
       <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>307507</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>667813</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <v>506326</v>
       </c>
-      <c r="F43" s="3">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
         <v>133</v>
       </c>
-      <c r="H43">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1831366421712772</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74499127321488168</v>
+      </c>
+      <c r="J43" s="5">
         <f t="shared" si="3"/>
-        <v>2.1717001564192033</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="3"/>
-        <v>0.75818530037600351</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="2"/>
-        <v>1.9091256459202555</v>
-      </c>
-      <c r="L43">
+        <v>1.9047771944122593</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5">
         <v>5218040</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="5">
         <v>5190705</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="5">
         <v>5282634</v>
       </c>
-      <c r="P43">
+      <c r="O43" s="5"/>
+      <c r="P43" s="5">
         <f t="shared" si="4"/>
         <v>5.8931514515028631</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="5">
         <f t="shared" si="4"/>
         <v>12.86555487164075</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="5">
         <f t="shared" si="4"/>
         <v>9.5847261044395662</v>
       </c>
@@ -11225,7 +11380,7 @@
       </c>
       <c r="AF43">
         <f>AF37-(1.96*AF38)</f>
-        <v>1.6704736438572017E-2</v>
+        <v>1.6339788782095934E-2</v>
       </c>
       <c r="AG43"/>
       <c r="AH43"/>
@@ -11243,48 +11398,52 @@
       <c r="A44" t="s">
         <v>40</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>99010</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>79385</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>93461</v>
       </c>
-      <c r="F44">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
         <v>147</v>
       </c>
-      <c r="H44">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5">
+        <f t="shared" si="2"/>
+        <v>0.79856667112371593</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="0"/>
+        <v>1.16031354001612</v>
+      </c>
+      <c r="J44" s="5">
         <f t="shared" si="3"/>
-        <v>0.80178769821230178</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="3"/>
-        <v>1.1773130944133023</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="2"/>
-        <v>0.87287142712857291</v>
-      </c>
-      <c r="L44" s="3">
+        <v>0.86257719611708172</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5">
         <v>891779</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="5">
         <v>895376</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="5">
         <v>908494</v>
       </c>
-      <c r="P44">
+      <c r="O44" s="5"/>
+      <c r="P44" s="5">
         <f t="shared" si="4"/>
         <v>11.102526522826844</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="5">
         <f t="shared" si="4"/>
         <v>8.866107646396598</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="5">
         <f t="shared" si="4"/>
         <v>10.287464749354426</v>
       </c>
@@ -11293,7 +11452,7 @@
       </c>
       <c r="AF44">
         <f>AF37+(1.96*AF38)</f>
-        <v>4.5394080393687947E-2</v>
+        <v>4.4122293962841105E-2</v>
       </c>
       <c r="AR44" t="s">
         <v>70</v>
@@ -11307,48 +11466,52 @@
       <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>580784</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>831518</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <v>952097</v>
       </c>
-      <c r="F45">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
         <v>127</v>
       </c>
-      <c r="H45">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4135749516086566</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="0"/>
+        <v>1.132650009321321</v>
+      </c>
+      <c r="J45" s="5">
         <f t="shared" si="3"/>
-        <v>1.4317164384693792</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="3"/>
-        <v>1.1450106912899058</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="2"/>
-        <v>1.5355235337061628</v>
-      </c>
-      <c r="L45">
+        <v>1.5073303168622938</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5">
         <v>6886834</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="5">
         <v>6975218</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="5">
         <v>7051339</v>
       </c>
-      <c r="P45">
+      <c r="O45" s="5"/>
+      <c r="P45" s="5">
         <f t="shared" si="4"/>
         <v>8.4332510410444037</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="5">
         <f t="shared" si="4"/>
         <v>11.921032432247996</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="5">
         <f t="shared" si="4"/>
         <v>13.502357495505462</v>
       </c>
@@ -11357,48 +11520,52 @@
       <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>1756172</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>2816351</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <v>3416091</v>
       </c>
-      <c r="F46">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
         <v>138</v>
       </c>
-      <c r="H46">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5946352635548315</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1927583349662656</v>
+      </c>
+      <c r="J46" s="5">
         <f t="shared" si="3"/>
-        <v>1.6036874520263391</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="3"/>
-        <v>1.212949309230277</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="2"/>
-        <v>1.7744395195914751</v>
-      </c>
-      <c r="L46">
+        <v>1.748324882695492</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5">
         <v>29359210</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="5">
         <v>29525872</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="5">
         <v>30025685</v>
       </c>
-      <c r="P46">
+      <c r="O46" s="5"/>
+      <c r="P46" s="5">
         <f t="shared" si="4"/>
         <v>5.9816732125966601</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="5">
         <f t="shared" si="4"/>
         <v>9.5385870398679504</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="5">
         <f t="shared" si="4"/>
         <v>11.377229195603697</v>
       </c>
@@ -11410,48 +11577,52 @@
       <c r="A47" t="s">
         <v>43</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>276732</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>360260</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <v>437836</v>
       </c>
-      <c r="F47">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
         <v>139</v>
       </c>
-      <c r="H47">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2674494512865795</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1999476421002273</v>
+      </c>
+      <c r="J47" s="5">
         <f t="shared" si="3"/>
-        <v>1.3018371565268925</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="3"/>
-        <v>1.2153333703436406</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="2"/>
-        <v>1.4420016478036513</v>
-      </c>
-      <c r="L47">
+        <v>1.3941612159195687</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5">
         <v>3248853</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="5">
         <v>3336999</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="5">
         <v>3379786</v>
       </c>
-      <c r="P47">
+      <c r="O47" s="5"/>
+      <c r="P47" s="5">
         <f t="shared" si="4"/>
         <v>8.5178369104419307</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="5">
         <f t="shared" si="4"/>
         <v>10.795927718288198</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="5">
         <f t="shared" si="4"/>
         <v>12.954548009844411</v>
       </c>
@@ -11463,48 +11634,52 @@
       <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>349568</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>768950</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5">
         <v>1080784</v>
       </c>
-      <c r="F48">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
         <v>171</v>
       </c>
-      <c r="H48">
+      <c r="G48" s="5"/>
+      <c r="H48" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1865530935625941</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3988401097138481</v>
+      </c>
+      <c r="J48" s="5">
         <f t="shared" si="3"/>
-        <v>2.1997150768949103</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="3"/>
-        <v>1.4055322192600299</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="2"/>
-        <v>2.6457427453313804</v>
-      </c>
-      <c r="L48">
+        <v>2.6225956314284233</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5">
         <v>8590563</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="5">
         <v>8642274</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="5">
         <v>8683619</v>
       </c>
-      <c r="P48">
+      <c r="O48" s="5"/>
+      <c r="P48" s="5">
         <f t="shared" si="4"/>
         <v>4.0692094336541151</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="5">
         <f t="shared" si="4"/>
         <v>8.8975424755104964</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="5">
         <f t="shared" si="4"/>
         <v>12.446239292626727</v>
       </c>
@@ -11513,48 +11688,52 @@
       <c r="A49" t="s">
         <v>44</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>7412</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>57035</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="5">
         <v>83946</v>
       </c>
-      <c r="F49">
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
         <v>200</v>
       </c>
-      <c r="H49">
+      <c r="G49" s="5"/>
+      <c r="H49" s="5">
+        <f t="shared" si="2"/>
+        <v>7.4300642395106919</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4684347833441154</v>
+      </c>
+      <c r="J49" s="5">
         <f t="shared" si="3"/>
-        <v>7.6949541284403669</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="3"/>
-        <v>1.4718330849478392</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="2"/>
-        <v>9.510321100917432</v>
-      </c>
-      <c r="L49">
+        <v>9.1703145056447166</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5">
         <v>623347</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="5">
         <v>645570</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="5">
         <v>647064</v>
       </c>
-      <c r="P49">
+      <c r="O49" s="5"/>
+      <c r="P49" s="5">
         <f t="shared" si="4"/>
         <v>1.1890648386853551</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="5">
         <f t="shared" si="4"/>
         <v>8.8348281363756058</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="5">
         <f t="shared" si="4"/>
         <v>12.973368940321206</v>
       </c>
@@ -11563,48 +11742,52 @@
       <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>246752</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <v>602323</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="5">
         <v>1034601</v>
       </c>
-      <c r="F50" s="3">
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
         <v>168</v>
       </c>
-      <c r="H50">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4267860183090941</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7072949123433154</v>
+      </c>
+      <c r="J50" s="5">
         <f t="shared" si="3"/>
-        <v>2.4410055440280121</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="3"/>
-        <v>1.7176846974131819</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="2"/>
-        <v>3.3169417066528335</v>
-      </c>
-      <c r="L50">
+        <v>3.2850127203570509</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5">
         <v>7693612</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="5">
         <v>7738692</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="5">
         <v>7785786</v>
       </c>
-      <c r="P50">
+      <c r="O50" s="5"/>
+      <c r="P50" s="5">
         <f t="shared" si="4"/>
         <v>3.207232181711269</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="5">
         <f t="shared" si="4"/>
         <v>7.7832662160478794</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="5">
         <f t="shared" si="4"/>
         <v>13.288330812072152</v>
       </c>
@@ -11616,48 +11799,52 @@
       <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>520437</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>600226</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <v>840215</v>
       </c>
-      <c r="F51">
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
         <v>157</v>
       </c>
-      <c r="H51">
+      <c r="G51" s="5"/>
+      <c r="H51" s="5">
+        <f t="shared" si="2"/>
+        <v>1.140938485368528</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4006314029861382</v>
+      </c>
+      <c r="J51" s="5">
         <f t="shared" si="3"/>
-        <v>1.1533115439524861</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="3"/>
-        <v>1.3998310636326983</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="2"/>
-        <v>1.3838764346116821</v>
-      </c>
-      <c r="L51" s="3">
+        <v>1.3694863784255646</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5">
         <v>5832655</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="5">
         <v>5895908</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="5">
         <v>5892539</v>
       </c>
-      <c r="P51">
+      <c r="O51" s="5"/>
+      <c r="P51" s="5">
         <f t="shared" si="4"/>
         <v>8.9228147387424759</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="5">
         <f t="shared" si="4"/>
         <v>10.180382733244819</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="5">
         <f t="shared" si="4"/>
         <v>14.258963750600548</v>
       </c>
@@ -11672,48 +11859,52 @@
       <c r="A52" t="s">
         <v>47</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>71215</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>256947</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <v>296559</v>
       </c>
-      <c r="F52">
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
         <v>139</v>
       </c>
-      <c r="H52">
+      <c r="G52" s="5"/>
+      <c r="H52" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6117452500066616</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1592374127885781</v>
+      </c>
+      <c r="J52" s="5">
         <f t="shared" si="3"/>
-        <v>3.6080460577125604</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="3"/>
-        <v>1.1541640883139324</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="2"/>
-        <v>3.8861616232535279</v>
-      </c>
-      <c r="L52">
+        <v>3.8993077346379095</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5">
         <v>1784787</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="5">
         <v>1782959</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="5">
         <v>1775156</v>
       </c>
-      <c r="P52">
+      <c r="O52" s="5"/>
+      <c r="P52" s="5">
         <f t="shared" si="4"/>
         <v>3.9901119853517533</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="5">
         <f t="shared" si="4"/>
         <v>14.411268010088845</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="5">
         <f t="shared" si="4"/>
         <v>16.706081043018191</v>
       </c>
@@ -11728,48 +11919,52 @@
       <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>44409</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5">
         <v>71229</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="5">
         <v>66943</v>
       </c>
-      <c r="F53">
+      <c r="E53" s="5"/>
+      <c r="F53" s="5">
         <v>121</v>
       </c>
-      <c r="H53">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6136998277918164</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="0"/>
+        <v>0.93566042905315772</v>
+      </c>
+      <c r="J53" s="5">
         <f t="shared" si="3"/>
-        <v>1.6039316354792947</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="3"/>
-        <v>0.93982787909418919</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="2"/>
-        <v>1.5556756513319372</v>
-      </c>
-      <c r="L53" s="2">
+        <v>1.5617874505132572</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5">
         <v>582328</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="5">
         <v>578803</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="5">
         <v>581381</v>
       </c>
-      <c r="P53">
+      <c r="O53" s="5"/>
+      <c r="P53" s="5">
         <f t="shared" si="4"/>
         <v>7.6261144921762307</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="5">
         <f t="shared" si="4"/>
         <v>12.306259642745459</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="5">
         <f t="shared" si="4"/>
         <v>11.514480177370777</v>
       </c>
